--- a/Report/statistics.xlsx
+++ b/Report/statistics.xlsx
@@ -183,7 +183,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -323,11 +322,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="55599616"/>
-        <c:axId val="60855936"/>
+        <c:axId val="527173120"/>
+        <c:axId val="104632832"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="55599616"/>
+        <c:axId val="527173120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -337,7 +336,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="60855936"/>
+        <c:crossAx val="104632832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -345,7 +344,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="60855936"/>
+        <c:axId val="104632832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -356,14 +355,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="55599616"/>
+        <c:crossAx val="527173120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -403,7 +401,15 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Độ</a:t>
+              <a:t>Biểu</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> đồ biểu diễn đ</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>ộ</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
@@ -433,7 +439,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet2!$A$1:$H$1</c:f>
+              <c:f>Sheet2!$B$2:$I$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -466,7 +472,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$A$12:$H$12</c:f>
+              <c:f>Sheet2!$B$13:$I$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -510,7 +516,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$A$13:$H$13</c:f>
+              <c:f>Sheet2!$B$14:$I$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -553,11 +559,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="520228864"/>
-        <c:axId val="526606912"/>
+        <c:axId val="100757504"/>
+        <c:axId val="42854656"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="520228864"/>
+        <c:axId val="100757504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -567,7 +573,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="526606912"/>
+        <c:crossAx val="42854656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -575,7 +581,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="526606912"/>
+        <c:axId val="42854656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -586,7 +592,266 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="520228864"/>
+        <c:crossAx val="100757504"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Biểu</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> đồ biểu diễn độ lỗi theo tham số MinPts và Eps</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>0.05</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$A$20:$D$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$A$21:$D$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>85.03</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>84.23</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>84.23</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>84.23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>0.045</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$A$20:$D$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$A$22:$D$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>86.03</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>86.43</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>86.43</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>86.43</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>0.055</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$A$20:$D$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$A$23:$D$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>83.63</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>83.63</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>83.63</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>83.63</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="44979712"/>
+        <c:axId val="57760512"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="44979712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="57760512"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="57760512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="44979712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -649,20 +914,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="6" name="Chart 5"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -674,6 +939,38 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1567,27 +1864,27 @@
         <v>957.5</v>
       </c>
       <c r="C24" s="1">
-        <f>AVERAGE(C14:C23)</f>
+        <f t="shared" ref="C24:H24" si="2">AVERAGE(C14:C23)</f>
         <v>866.5</v>
       </c>
       <c r="D24" s="1">
-        <f>AVERAGE(D14:D23)</f>
+        <f t="shared" si="2"/>
         <v>750.2</v>
       </c>
       <c r="E24" s="1">
-        <f>AVERAGE(E14:E23)</f>
+        <f t="shared" si="2"/>
         <v>675.6</v>
       </c>
       <c r="F24" s="1">
-        <f>AVERAGE(F14:F23)</f>
+        <f t="shared" si="2"/>
         <v>724.9</v>
       </c>
       <c r="G24" s="1">
-        <f>AVERAGE(G14:G23)</f>
+        <f t="shared" si="2"/>
         <v>618.29999999999995</v>
       </c>
       <c r="H24" s="1">
-        <f>AVERAGE(H14:H23)</f>
+        <f t="shared" si="2"/>
         <v>567.70000000000005</v>
       </c>
     </row>
@@ -1600,10 +1897,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A2:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+      <selection activeCell="R24" sqref="R24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1612,444 +1909,444 @@
     <col min="9" max="9" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2">
+    <row r="2" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="2">
         <v>6</v>
       </c>
-      <c r="B1" s="2">
+      <c r="C2" s="2">
         <v>8</v>
       </c>
-      <c r="C1" s="2">
+      <c r="D2" s="2">
         <v>10</v>
       </c>
-      <c r="D1" s="2">
+      <c r="E2" s="2">
         <v>12</v>
       </c>
-      <c r="E1" s="2">
+      <c r="F2" s="2">
         <v>14</v>
       </c>
-      <c r="F1" s="2">
+      <c r="G2" s="2">
         <v>16</v>
       </c>
-      <c r="G1" s="2">
+      <c r="H2" s="2">
         <v>18</v>
       </c>
-      <c r="H1" s="2">
+      <c r="I2" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3">
         <v>81.64</v>
       </c>
-      <c r="B2">
+      <c r="C3">
         <v>82.63</v>
       </c>
-      <c r="C2">
+      <c r="D3">
         <v>81.84</v>
       </c>
-      <c r="D2">
+      <c r="E3">
         <v>79.239999999999995</v>
       </c>
-      <c r="E2">
+      <c r="F3">
         <v>79.040000000000006</v>
       </c>
-      <c r="F2">
+      <c r="G3">
         <v>83.43</v>
       </c>
-      <c r="G2">
+      <c r="H3">
         <v>80.040000000000006</v>
       </c>
-      <c r="H2">
+      <c r="I3">
         <v>87.03</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4">
         <v>79.040000000000006</v>
       </c>
-      <c r="B3">
+      <c r="C4">
         <v>83.03</v>
       </c>
-      <c r="C3">
+      <c r="D4">
         <v>77.84</v>
       </c>
-      <c r="D3">
+      <c r="E4">
         <v>82.44</v>
       </c>
-      <c r="E3">
+      <c r="F4">
         <v>78.040000000000006</v>
       </c>
-      <c r="F3">
+      <c r="G4">
         <v>78.84</v>
       </c>
-      <c r="G3">
+      <c r="H4">
         <v>73.25</v>
       </c>
-      <c r="H3">
+      <c r="I4">
         <v>78.44</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5">
         <v>80.64</v>
       </c>
-      <c r="B4">
+      <c r="C5">
         <v>75.25</v>
       </c>
-      <c r="C4">
+      <c r="D5">
         <v>75.25</v>
       </c>
-      <c r="D4">
+      <c r="E5">
         <v>78.040000000000006</v>
       </c>
-      <c r="E4">
+      <c r="F5">
         <v>78.44</v>
       </c>
-      <c r="F4">
+      <c r="G5">
         <v>82.63</v>
       </c>
-      <c r="G4">
+      <c r="H5">
         <v>75.650000000000006</v>
       </c>
-      <c r="H4">
+      <c r="I5">
         <v>76.650000000000006</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6">
         <v>80.64</v>
       </c>
-      <c r="B5">
+      <c r="C6">
         <v>76.45</v>
       </c>
-      <c r="C5">
+      <c r="D6">
         <v>78.239999999999995</v>
       </c>
-      <c r="D5">
+      <c r="E6">
         <v>81.84</v>
       </c>
-      <c r="E5">
+      <c r="F6">
         <v>81.84</v>
       </c>
-      <c r="F5">
+      <c r="G6">
         <v>77.25</v>
       </c>
-      <c r="G5">
+      <c r="H6">
         <v>79.239999999999995</v>
       </c>
-      <c r="H5">
+      <c r="I6">
         <v>80.64</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7">
         <v>79.64</v>
       </c>
-      <c r="B6">
+      <c r="C7">
         <v>77.64</v>
       </c>
-      <c r="C6">
+      <c r="D7">
         <v>82.04</v>
       </c>
-      <c r="D6">
+      <c r="E7">
         <v>82.63</v>
       </c>
-      <c r="E6">
+      <c r="F7">
         <v>84.43</v>
       </c>
-      <c r="F6">
+      <c r="G7">
         <v>73.849999999999994</v>
       </c>
-      <c r="G6">
+      <c r="H7">
         <v>80.44</v>
       </c>
-      <c r="H6">
+      <c r="I7">
         <v>78.84</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8">
         <v>80.44</v>
       </c>
-      <c r="B7">
+      <c r="C8">
         <v>78.239999999999995</v>
       </c>
-      <c r="C7">
+      <c r="D8">
         <v>79.64</v>
       </c>
-      <c r="D7">
+      <c r="E8">
         <v>76.05</v>
       </c>
-      <c r="E7">
+      <c r="F8">
         <v>81.44</v>
       </c>
-      <c r="F7">
+      <c r="G8">
         <v>82.83</v>
       </c>
-      <c r="G7">
+      <c r="H8">
         <v>81.64</v>
       </c>
-      <c r="H7">
+      <c r="I8">
         <v>75.25</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9">
         <v>77.45</v>
       </c>
-      <c r="B8">
+      <c r="C9">
         <v>81.44</v>
       </c>
-      <c r="C8">
+      <c r="D9">
         <v>75.25</v>
       </c>
-      <c r="D8">
+      <c r="E9">
         <v>84.83</v>
       </c>
-      <c r="E8">
+      <c r="F9">
         <v>79.040000000000006</v>
       </c>
-      <c r="F8">
+      <c r="G9">
         <v>78.040000000000006</v>
       </c>
-      <c r="G8">
+      <c r="H9">
         <v>78.239999999999995</v>
       </c>
-      <c r="H8">
+      <c r="I9">
         <v>78.84</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10">
         <v>80.44</v>
       </c>
-      <c r="B9">
+      <c r="C10">
         <v>76.849999999999994</v>
       </c>
-      <c r="C9">
+      <c r="D10">
         <v>79.239999999999995</v>
       </c>
-      <c r="D9">
+      <c r="E10">
         <v>76.25</v>
       </c>
-      <c r="E9">
+      <c r="F10">
         <v>76.650000000000006</v>
       </c>
-      <c r="F9">
+      <c r="G10">
         <v>74.45</v>
       </c>
-      <c r="G9">
+      <c r="H10">
         <v>78.44</v>
       </c>
-      <c r="H9">
+      <c r="I10">
         <v>80.84</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B11">
         <v>79.84</v>
       </c>
-      <c r="B10">
+      <c r="C11">
         <v>81.64</v>
       </c>
-      <c r="C10">
+      <c r="D11">
         <v>82.24</v>
       </c>
-      <c r="D10">
+      <c r="E11">
         <v>79.84</v>
       </c>
-      <c r="E10">
+      <c r="F11">
         <v>77.84</v>
       </c>
-      <c r="F10">
+      <c r="G11">
         <v>80.040000000000006</v>
       </c>
-      <c r="G10">
+      <c r="H11">
         <v>82.63</v>
       </c>
-      <c r="H10">
+      <c r="I11">
         <v>76.05</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B12">
         <v>81.239999999999995</v>
       </c>
-      <c r="B11">
+      <c r="C12">
         <v>82.63</v>
       </c>
-      <c r="C11">
+      <c r="D12">
         <v>77.64</v>
       </c>
-      <c r="D11">
+      <c r="E12">
         <v>79.239999999999995</v>
       </c>
-      <c r="E11">
+      <c r="F12">
         <v>78.64</v>
       </c>
-      <c r="F11">
+      <c r="G12">
         <v>76.05</v>
       </c>
-      <c r="G11">
+      <c r="H12">
         <v>83.83</v>
       </c>
-      <c r="H11">
+      <c r="I12">
         <v>81.44</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <f t="shared" ref="A12:G12" si="0">AVERAGE(A2:A11)</f>
+    <row r="13" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="1">
+        <f t="shared" ref="B13:H13" si="0">AVERAGE(B3:B12)</f>
         <v>80.101000000000013</v>
       </c>
-      <c r="B12" s="1">
+      <c r="C13" s="1">
         <f t="shared" si="0"/>
         <v>79.580000000000013</v>
       </c>
-      <c r="C12" s="1">
+      <c r="D13" s="1">
         <f t="shared" si="0"/>
         <v>78.921999999999997</v>
       </c>
-      <c r="D12" s="1">
+      <c r="E13" s="1">
         <f t="shared" si="0"/>
         <v>80.040000000000006</v>
       </c>
-      <c r="E12" s="1">
+      <c r="F13" s="1">
         <f t="shared" si="0"/>
         <v>79.539999999999992</v>
       </c>
-      <c r="F12" s="1">
+      <c r="G13" s="1">
         <f t="shared" si="0"/>
         <v>78.741</v>
       </c>
-      <c r="G12" s="1">
+      <c r="H13" s="1">
         <f t="shared" si="0"/>
         <v>79.34</v>
       </c>
-      <c r="H12" s="1">
-        <f>AVERAGE(H2:H11)</f>
+      <c r="I13" s="1">
+        <f>AVERAGE(I3:I12)</f>
         <v>79.402000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="2">
         <v>80.239999999999995</v>
       </c>
-      <c r="B13" s="2">
+      <c r="C14" s="2">
         <v>80.239999999999995</v>
       </c>
-      <c r="C13" s="2">
+      <c r="D14" s="2">
         <v>80.84</v>
       </c>
-      <c r="D13" s="2">
+      <c r="E14" s="2">
         <v>82.04</v>
       </c>
-      <c r="E13" s="2">
+      <c r="F14" s="2">
         <v>81.040000000000006</v>
       </c>
-      <c r="F13" s="2">
+      <c r="G14" s="2">
         <v>81.64</v>
       </c>
-      <c r="G13" s="2">
+      <c r="H14" s="2">
         <v>83.43</v>
       </c>
-      <c r="H13" s="2">
+      <c r="I14" s="2">
         <v>83.03</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I15" s="3"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="I16" s="3"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I17" s="3"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I18" s="3"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
         <v>50</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B20" s="5">
         <v>80</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C20" s="5">
         <v>90</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D20" s="5">
         <v>100</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E20" s="4" t="s">
         <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>85.03</v>
-      </c>
-      <c r="B20">
-        <v>84.23</v>
-      </c>
-      <c r="C20">
-        <v>84.23</v>
-      </c>
-      <c r="D20">
-        <v>84.23</v>
-      </c>
-      <c r="E20" s="3">
-        <v>0.05</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>86.03</v>
+        <v>85.03</v>
       </c>
       <c r="B21">
-        <v>86.43</v>
+        <v>84.23</v>
       </c>
       <c r="C21">
-        <v>86.43</v>
+        <v>84.23</v>
       </c>
       <c r="D21">
-        <v>86.43</v>
+        <v>84.23</v>
       </c>
       <c r="E21" s="3">
-        <v>4.4999999999999998E-2</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>83.63</v>
+        <v>86.03</v>
       </c>
       <c r="B22">
-        <v>83.63</v>
+        <v>86.43</v>
       </c>
       <c r="C22">
-        <v>83.63</v>
+        <v>86.43</v>
       </c>
       <c r="D22">
-        <v>83.63</v>
+        <v>86.43</v>
       </c>
       <c r="E22" s="3">
-        <v>5.5E-2</v>
+        <v>4.4999999999999998E-2</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
-        <f t="shared" ref="A23" si="1">AVERAGE(A20:A22)</f>
+        <v>83.63</v>
+      </c>
+      <c r="B23">
+        <v>83.63</v>
+      </c>
+      <c r="C23">
+        <v>83.63</v>
+      </c>
+      <c r="D23">
+        <v>83.63</v>
+      </c>
+      <c r="E23" s="3">
+        <v>5.5E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <f t="shared" ref="A24" si="1">AVERAGE(A21:A23)</f>
         <v>84.896666666666661</v>
       </c>
-      <c r="B23">
-        <f t="shared" ref="B23" si="2">AVERAGE(B20:B22)</f>
+      <c r="B24">
+        <f t="shared" ref="B24" si="2">AVERAGE(B21:B23)</f>
         <v>84.763333333333335</v>
       </c>
-      <c r="C23">
-        <f t="shared" ref="C23" si="3">AVERAGE(C20:C22)</f>
+      <c r="C24">
+        <f t="shared" ref="C24" si="3">AVERAGE(C21:C23)</f>
         <v>84.763333333333335</v>
       </c>
-      <c r="D23">
-        <f t="shared" ref="D23" si="4">AVERAGE(D20:D22)</f>
+      <c r="D24">
+        <f t="shared" ref="D24" si="4">AVERAGE(D21:D23)</f>
         <v>84.763333333333335</v>
       </c>
     </row>
@@ -2071,8 +2368,8 @@
           <x14:colorLow rgb="FFD00000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>Sheet2!E19</xm:f>
-              <xm:sqref>I21</xm:sqref>
+              <xm:f>Sheet2!E20:E20</xm:f>
+              <xm:sqref>I22</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
